--- a/Dough_O_output_algorithm.xlsx
+++ b/Dough_O_output_algorithm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mneroni.INIM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mneroni.INIM\Desktop\Dough-O\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF3187C-153E-417C-812E-1405642B4F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCE2BCA-3B19-4F7A-BE68-6EAB5E5CD038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>hh_hl</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>&lt;= -0,5 &gt;</t>
-  </si>
-  <si>
-    <t>&lt;= 0,5 &gt;</t>
   </si>
   <si>
     <t>&lt;= 1 &gt;</t>
@@ -144,9 +141,6 @@
     <t>on/pwm/offpwm parameters</t>
   </si>
   <si>
-    <t>neutral area:</t>
-  </si>
-  <si>
     <t>outputs disabled</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
     <t>when temperature is &gt; target + 1</t>
   </si>
   <si>
-    <t>when temperature is &lt; target + 0,5 and &lt;= target +1</t>
-  </si>
-  <si>
     <t>Dough-O! output algorithm</t>
   </si>
   <si>
@@ -189,17 +180,38 @@
     <t>Comfee hs108fn1wh</t>
   </si>
   <si>
-    <t>hysteresis area</t>
-  </si>
-  <si>
-    <t>NOTE: between hl_pwm and neg_off usually there is no hysteresis area, then the values match</t>
+    <t>&lt;= 0,2 &gt;</t>
+  </si>
+  <si>
+    <t>n_hyst_area</t>
+  </si>
+  <si>
+    <t>p_hyst_area</t>
+  </si>
+  <si>
+    <t>when temperature is &lt; target + 0,2 and &lt;= target +1</t>
+  </si>
+  <si>
+    <t>p_hyst_area:</t>
+  </si>
+  <si>
+    <t>n_hyst_area:</t>
+  </si>
+  <si>
+    <t>negative hysteresis area:</t>
+  </si>
+  <si>
+    <t>when temperature is &lt; target - 0,2 and &gt;= target - 0,5</t>
+  </si>
+  <si>
+    <t>PremierTech PT-FR86B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +287,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -326,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -472,11 +492,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -643,46 +674,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,25 +712,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -746,28 +764,51 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,89 +1090,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32.25" x14ac:dyDescent="0.5">
-      <c r="A1" s="117" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-    </row>
-    <row r="2" spans="1:15" ht="32.25" x14ac:dyDescent="0.5">
-      <c r="A2" s="117" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="72" t="s">
+    <row r="1" spans="1:16" ht="32.25" x14ac:dyDescent="0.5">
+      <c r="A1" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+    </row>
+    <row r="2" spans="1:16" ht="32.25" x14ac:dyDescent="0.5">
+      <c r="A2" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74" t="s">
+      <c r="C4" s="112"/>
+      <c r="D4" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76" t="s">
+      <c r="E4" s="114"/>
+      <c r="F4" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78" t="s">
+      <c r="G4" s="116"/>
+      <c r="H4" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80" t="s">
+      <c r="I4" s="118"/>
+      <c r="J4" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="L4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="85"/>
-      <c r="N4" s="82" t="s">
+      <c r="M4" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="120"/>
+      <c r="O4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="83"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P4" s="102"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="61"/>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
@@ -1139,15 +1187,16 @@
       <c r="F5" s="65"/>
       <c r="G5" s="66"/>
       <c r="H5" s="67"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="71"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I5" s="92"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="71"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1170,24 +1219,25 @@
         <v>12</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="77"/>
+      <c r="K6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="L6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="88"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="51" t="s">
+      <c r="M6" s="76"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="52">
+      <c r="P6" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1212,22 +1262,23 @@
       <c r="I7" s="36">
         <v>0</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="79"/>
+      <c r="K7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="L7" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="53" t="s">
+      <c r="M7" s="78"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="54">
+      <c r="P7" s="54">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
@@ -1252,22 +1303,23 @@
       <c r="I8" s="38">
         <v>0</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="81"/>
+      <c r="K8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="48" t="s">
+      <c r="L8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="92"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="55" t="s">
+      <c r="M8" s="80"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="56">
+      <c r="P8" s="56">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="29"/>
@@ -1276,625 +1328,695 @@
       <c r="G9" s="20"/>
       <c r="H9" s="39"/>
       <c r="I9" s="40"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="58"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J9" s="83"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="58"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="29"/>
       <c r="E10" s="30"/>
       <c r="F10" s="19"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="110"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="58"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H10" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="107"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="58"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="60"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H11" s="108"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="60"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
       <c r="H12" s="1"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="98"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
+      <c r="M12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="86"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105" t="s">
+      <c r="B14" s="91"/>
+      <c r="C14" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105" t="s">
+      <c r="D14" s="103"/>
+      <c r="E14" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105" t="s">
+      <c r="F14" s="103"/>
+      <c r="G14" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105" t="s">
+      <c r="H14" s="103"/>
+      <c r="I14" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="106"/>
-      <c r="K14" s="107" t="s">
+      <c r="J14" s="103"/>
+      <c r="K14" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="105"/>
+      <c r="N14" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="108"/>
-      <c r="M14" s="105" t="s">
+      <c r="O14" s="103"/>
+      <c r="P14" s="91"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="110"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="105"/>
-      <c r="O14" s="104"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="102"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-    </row>
-    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="114" t="s">
+      <c r="C18" s="94"/>
+      <c r="D18" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115" t="s">
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-    </row>
-    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="114" t="s">
+      <c r="C19" s="94"/>
+      <c r="D19" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115" t="s">
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-    </row>
-    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="114" t="s">
+      <c r="C20" s="94"/>
+      <c r="D20" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115" t="s">
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-    </row>
-    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="114" t="s">
+      <c r="C21" s="94"/>
+      <c r="D21" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115" t="s">
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="93"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-    </row>
-    <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115" t="s">
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="93"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-    </row>
-    <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-    </row>
-    <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="114" t="s">
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="93"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="93"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-    </row>
-    <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-    </row>
-    <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115" t="s">
+      <c r="C31" s="94"/>
+      <c r="D31" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-    </row>
-    <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115" t="s">
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-    </row>
-    <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="114" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="118" t="s">
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="100"/>
+      <c r="F35" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118" t="s">
+    </row>
+    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="118"/>
-      <c r="F33" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="121" t="s">
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97">
+        <v>86</v>
+      </c>
+      <c r="E36" s="97"/>
+      <c r="F36" s="95">
+        <v>-7</v>
+      </c>
+      <c r="G36" s="95">
+        <v>-4</v>
+      </c>
+      <c r="H36" s="95">
+        <v>-2</v>
+      </c>
+      <c r="I36" s="95">
+        <v>-0.5</v>
+      </c>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95">
+        <v>-0.2</v>
+      </c>
+      <c r="L36" s="95">
+        <v>0.2</v>
+      </c>
+      <c r="M36" s="95">
         <v>1</v>
       </c>
-      <c r="H33" s="121" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" s="121" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="121" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="121" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="121" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="121" t="s">
-        <v>48</v>
-      </c>
-      <c r="N33" s="121" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="119" t="s">
+      <c r="N36" s="95">
         <v>50</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119">
+      <c r="O36" s="95">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97">
         <v>86</v>
       </c>
-      <c r="E34" s="119"/>
-      <c r="F34" s="120">
+      <c r="E37" s="97"/>
+      <c r="F37" s="95">
         <v>-7</v>
       </c>
-      <c r="G34" s="120">
+      <c r="G37" s="95">
         <v>-4</v>
       </c>
-      <c r="H34" s="120">
+      <c r="H37" s="95">
         <v>-2</v>
       </c>
-      <c r="I34" s="120">
+      <c r="I37" s="95">
         <v>-0.5</v>
       </c>
-      <c r="J34" s="120">
-        <v>-0.5</v>
-      </c>
-      <c r="K34" s="120">
-        <v>0.5</v>
-      </c>
-      <c r="L34" s="120">
+      <c r="J37" s="95"/>
+      <c r="K37" s="95">
+        <v>-0.2</v>
+      </c>
+      <c r="L37" s="95">
+        <v>0.2</v>
+      </c>
+      <c r="M37" s="95">
         <v>1</v>
       </c>
-      <c r="M34" s="120">
+      <c r="N37" s="95">
         <v>50</v>
       </c>
-      <c r="N34" s="120">
+      <c r="O37" s="95">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="120"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="119"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="120"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="119"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="120"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="120"/>
-      <c r="N37" s="120"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="119"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="120"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="120"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="120"/>
-      <c r="N38" s="120"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="119"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="120"/>
-      <c r="K39" s="120"/>
-      <c r="L39" s="120"/>
-      <c r="M39" s="120"/>
-      <c r="N39" s="120"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="119"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="120"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="119"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="120"/>
-      <c r="K41" s="120"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="120"/>
-      <c r="N41" s="120"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="119"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="120"/>
-      <c r="N42" s="120"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="119"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="115"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="115"/>
-      <c r="M44" s="115"/>
-      <c r="N44" s="115"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="115"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="115"/>
-      <c r="L45" s="115"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="115"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="115"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="115"/>
-      <c r="L46" s="115"/>
-      <c r="M46" s="115"/>
-      <c r="N46" s="115"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="115"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="115"/>
-      <c r="M47" s="115"/>
-      <c r="N47" s="115"/>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="115"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="115"/>
-      <c r="J48" s="115"/>
-      <c r="K48" s="115"/>
-      <c r="L48" s="115"/>
-      <c r="M48" s="115"/>
-      <c r="N48" s="115"/>
+    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="97"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="97"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="97"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="95"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="97"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="97"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="97"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="97"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="97"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="94"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="94"/>
+      <c r="K46" s="94"/>
+      <c r="L46" s="94"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="94"/>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="94"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
+      <c r="O47" s="94"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="94"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="94"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="94"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="94"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="94"/>
+      <c r="L49" s="94"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="94"/>
+      <c r="O49" s="94"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="94"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="94"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="94"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A45:C45"/>
     <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A44:C44"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
